--- a/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
@@ -451,351 +451,471 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>050014</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>博时创业成长混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>80.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.08</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>002553</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>博时创业成长混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>80.35</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.08</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001120</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001121</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>167705</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>92.31</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1.24</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>167706</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004010</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7381</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004011</t>
+          <t>110025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合C</t>
+          <t>易方达资源行业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>69.19</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.24</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005541</t>
+          <t>003986</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
+          <t>申万菱信中证500指数优选增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005542</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.76</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.29</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000423</t>
+          <t>009649</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合A</t>
+          <t>嘉实精选平衡混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001865</t>
+          <t>004010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合C</t>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>23.71</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.90</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002091</t>
+          <t>009387</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞新利灵活配置混合C</t>
+          <t>嘉实稳福混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23.71</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>69.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>200010</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>长城双动力混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>110025</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达资源行业混合</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>002091</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>华泰柏瑞新利灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>000423</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>前海开源事件驱动混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007386</t>
+          <t>002076</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强C</t>
+          <t>浙商中证500指数增强A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>89.19</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1.17</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008778</t>
+          <t>004011</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强A</t>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008779</t>
+          <t>005542</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强C</t>
+          <t>前海开源盛鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>200010</t>
+          <t>008778</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>长城双动力混合</t>
+          <t>嘉实中证500指数增强A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1360,15 +1670,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>70.77</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>9.46</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>003986</t>
+          <t>009650</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强A</t>
+          <t>嘉实精选平衡混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007794</t>
+          <t>001865</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强C</t>
+          <t>前海开源事件驱动混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009387</t>
+          <t>008779</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>嘉实稳福混合A</t>
+          <t>嘉实中证500指数增强C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009388</t>
+          <t>007794</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>嘉实稳福混合C</t>
+          <t>申万菱信中证500指数优选增强C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009649</t>
+          <t>007386</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合A</t>
+          <t>浙商中证500指数增强C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>44.48</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009650</t>
+          <t>009388</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合C</t>
+          <t>嘉实稳福混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>44.48</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,1084 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4416</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2622</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160621</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华丰和债券(LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006057</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华丰和债券（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3004,4 +3005,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3631,4 +3632,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3640,7 +3641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3651,17 +3652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3671,14 +3692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.44</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3687,14 +3730,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.29</v>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5788</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3703,14 +3768,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.73</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5286</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3719,13 +3806,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2634</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4267,7 +4268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4278,17 +4279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4298,14 +4319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.11</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4314,14 +4357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.44</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>108.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1441</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4330,14 +4395,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.29</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4346,14 +4433,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.73</v>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1612</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4362,13 +4471,1003 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5833</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5668</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4659</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4222</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3298</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2852</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2545</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5350,7 +5351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5361,17 +5362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5381,14 +5402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.67</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9308</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5397,14 +5440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.11</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9870</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5413,14 +5478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.44</v>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5429,14 +5516,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.29</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4683</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5445,14 +5554,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.73</v>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3958</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -5461,13 +5592,1285 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0903</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9352</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8886</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8774</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5830</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4865</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4577</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3296</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,37 +468,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -508,36 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6424</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.66</v>
       </c>
     </row>
     <row r="3">
@@ -546,36 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2742</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.67</v>
       </c>
     </row>
     <row r="4">
@@ -584,36 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>050014</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时创业成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1549</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.11</v>
       </c>
     </row>
     <row r="5">
@@ -622,36 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001120</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0726</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.44</v>
       </c>
     </row>
     <row r="6">
@@ -660,36 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001121</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0652</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.29</v>
       </c>
     </row>
     <row r="7">
@@ -698,36 +568,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row r="8">
@@ -736,188 +584,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002553</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时创业成长混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>167705</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>167706</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.27</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -952,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -982,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>012428</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>华夏核心制造混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>43.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7381</t>
+          <t>2.9308</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1020,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>110025</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达资源行业混合</t>
+          <t>交银趋势优先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>81.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5198</t>
+          <t>1.9870</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1058,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>19.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>70.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2809</t>
+          <t>1.7108</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1096,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003986</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强A</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>25.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2231</t>
+          <t>1.4683</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1134,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005541</t>
+          <t>288001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
+          <t>华夏经典配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>19.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>67.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>7.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2100</t>
+          <t>1.3958</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1172,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009649</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合A</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>19.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>44.48</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>1.0903</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1210,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004010</t>
+          <t>110025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合A</t>
+          <t>易方达资源行业混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>91.93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1101</t>
+          <t>0.9352</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1248,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001247</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞新利灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>10.93</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23.71</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1003</t>
+          <t>0.8886</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1286,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009387</t>
+          <t>014597</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实稳福混合A</t>
+          <t>华泰柏瑞富利灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>70.51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0936</t>
+          <t>0.8774</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1324,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>320006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>诺安灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>69.19</t>
+          <t>73.87</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0601</t>
+          <t>0.7018</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1362,36 +1036,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>200010</t>
+          <t>012429</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长城双动力混合</t>
+          <t>华夏核心制造混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0521</t>
+          <t>0.6025</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1400,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>014038</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>交银启诚混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>28.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>80.57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0379</t>
+          <t>0.5830</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1438,36 +1112,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002091</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞新利灵活配置混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23.71</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0266</t>
+          <t>0.4865</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1476,36 +1150,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000423</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0235</t>
+          <t>0.4577</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1514,36 +1188,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>260112</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>景顺长城能源基建混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>18.68</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>61.61</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.4054</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1552,36 +1226,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004011</t>
+          <t>008715</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合C</t>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>17.08</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>64.01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.3296</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1590,32 +1264,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005542</t>
+          <t>013430</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
+          <t>交银趋势优先混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>14.55</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>81.69</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.3201</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1628,36 +1302,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008778</t>
+          <t>000979</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强A</t>
+          <t>景顺长城沪港深精选股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>14.89</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>85.55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.3008</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1666,36 +1340,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>70.77</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.2012</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1704,32 +1378,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009650</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>44.48</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0084</t>
+          <t>0.1733</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1742,36 +1416,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001865</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合C</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.1728</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1780,36 +1454,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008779</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强C</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>79.33</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.1626</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1818,36 +1492,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007794</t>
+          <t>014039</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强C</t>
+          <t>交银启诚混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>80.57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.1619</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1856,32 +1530,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007386</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强C</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.1039</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1894,36 +1568,416 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009388</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉实稳福混合C</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>69.23</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0512</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +2012,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1988,32 +2042,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>012428</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>华夏核心制造混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>91.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4416</t>
+          <t>2.8044</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2026,36 +2080,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>交银趋势优先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>108.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6023</t>
+          <t>2.1441</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2064,32 +2118,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>25.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4218</t>
+          <t>1.3025</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2102,36 +2156,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011429</t>
+          <t>288001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源民裕进取混合</t>
+          <t>华夏经典配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>18.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>34.92</t>
+          <t>63.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2622</t>
+          <t>1.1612</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2140,36 +2194,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005541</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1850</t>
+          <t>0.8231</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2178,36 +2232,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>012429</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>华夏核心制造混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>9.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>91.55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1763</t>
+          <t>0.5833</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2216,32 +2270,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160621</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华丰和债券(LOF)A</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>9.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1667</t>
+          <t>0.5668</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2254,36 +2308,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>206013</t>
+          <t>320006</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华宏观灵活配置混合</t>
+          <t>诺安灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>32.78</t>
+          <t>70.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1150</t>
+          <t>0.4659</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2292,36 +2346,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002504</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华金鼎灵活配置混合A</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1144</t>
+          <t>0.4222</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2330,36 +2384,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001370</t>
+          <t>671010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银新趋势灵活配置混合</t>
+          <t>西部利得策略优选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1090</t>
+          <t>0.3443</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2368,36 +2422,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000585</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实对冲套利定期开放混合</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>55.03</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0988</t>
+          <t>0.3298</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2406,32 +2460,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011588</t>
+          <t>001247</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源成份精选混合</t>
+          <t>华泰柏瑞新利灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>10.68</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>33.94</t>
+          <t>20.70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0900</t>
+          <t>0.2852</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2444,36 +2498,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009387</t>
+          <t>004010</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实稳福混合A</t>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>10.24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>34.31</t>
+          <t>21.26</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0806</t>
+          <t>0.2744</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2482,36 +2536,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005741</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合A</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>68.27</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0781</t>
+          <t>0.2545</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2520,36 +2574,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009649</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>43.04</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>9.59</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0644</t>
+          <t>0.2100</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -2558,36 +2612,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>002091</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>华泰柏瑞新利灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>20.70</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0608</t>
+          <t>0.1597</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2596,36 +2650,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>011997</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>77.47</t>
+          <t>29.73</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0474</t>
+          <t>0.1223</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -2634,36 +2688,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000423</t>
+          <t>561550</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合A</t>
+          <t>华泰柏瑞中证500增强策略ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>81.05</t>
+          <t>98.93</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0473</t>
+          <t>0.1016</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2672,32 +2726,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>360010</t>
+          <t>004011</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>光大保德信均衡精选混合</t>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>21.26</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0458</t>
+          <t>0.0930</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2710,36 +2764,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006057</t>
+          <t>011060</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鹏华丰和债券（LOF）C</t>
+          <t>西部利得策略优选混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0273</t>
+          <t>0.0669</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2748,36 +2802,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005542</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0157</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2786,36 +2840,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002505</t>
+          <t>000423</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鹏华金鼎灵活配置混合C</t>
+          <t>前海开源事件驱动混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>88.63</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0408</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -2824,36 +2878,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>000066</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
+          <t>诺安鸿鑫混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>81.34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2862,36 +2916,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001865</t>
+          <t>005542</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合C</t>
+          <t>前海开源盛鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>81.05</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2900,36 +2954,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009388</t>
+          <t>011998</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉实稳福混合C</t>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>34.31</t>
+          <t>29.73</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2938,36 +2992,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009650</t>
+          <t>001865</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合C</t>
+          <t>前海开源事件驱动混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>43.04</t>
+          <t>88.63</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -2976,34 +3030,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010150</t>
+          <t>003739</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合C</t>
+          <t>新华鑫弘灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>68.27</t>
+          <t>42.81</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3038,7 +3094,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3068,36 +3124,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>012428</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>华夏核心制造混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.87</t>
+          <t>71.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0435</t>
+          <t>3.5692</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3106,36 +3162,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>广发沪港深新起点股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7599</t>
+          <t>0.5788</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3144,36 +3200,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4018</t>
+          <t>0.5286</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3182,36 +3238,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005541</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3252</t>
+          <t>0.3986</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3220,36 +3276,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3116</t>
+          <t>0.2634</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3258,36 +3314,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1487</t>
+          <t>0.2075</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -3296,36 +3352,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>001247</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>华泰柏瑞新利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>20.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1434</t>
+          <t>0.2014</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3334,36 +3390,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009387</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实稳福混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>42.58</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1149</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -3372,36 +3428,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>002091</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>华泰柏瑞新利灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>55.64</t>
+          <t>20.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0850</t>
+          <t>0.1048</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3410,36 +3466,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000423</t>
+          <t>011997</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合A</t>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>29.19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0222</t>
+          <t>0.0693</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -3448,32 +3504,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009388</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实稳福混合C</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>42.58</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -3496,22 +3552,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.0169</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -3524,36 +3580,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>005607</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
+          <t>华宝中证500指数增强A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -3562,36 +3618,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>516680</t>
+          <t>005608</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>建信中证细分有色金属产业主题ETF</t>
+          <t>华宝中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>96.12</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -3600,36 +3656,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001865</t>
+          <t>011998</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合C</t>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>29.19</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3664,7 +3720,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3694,36 +3750,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012428</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏核心制造混合型证券投资基金A</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.10</t>
+          <t>20.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.5692</t>
+          <t>1.0435</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3732,36 +3788,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002121</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票A</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5788</t>
+          <t>0.7599</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3770,36 +3826,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5286</t>
+          <t>0.4018</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3808,36 +3864,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3986</t>
+          <t>0.3252</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3846,36 +3902,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005541</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2634</t>
+          <t>0.3116</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3884,36 +3940,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2075</t>
+          <t>0.1487</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -3922,36 +3978,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001247</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞新利灵活配置混合A</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2014</t>
+          <t>0.1434</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -3960,36 +4016,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>009387</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>嘉实稳福混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>42.58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1414</t>
+          <t>0.1149</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3998,36 +4054,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002091</t>
+          <t>000433</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞新利灵活配置混合C</t>
+          <t>安信鑫发优选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>55.64</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1048</t>
+          <t>0.0850</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -4036,36 +4092,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011997</t>
+          <t>000423</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+          <t>前海开源事件驱动混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.19</t>
+          <t>89.46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0693</t>
+          <t>0.0222</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -4074,32 +4130,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>009388</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
+          <t>嘉实稳福混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>42.58</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0217</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4122,22 +4178,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0169</t>
+          <t>0.0195</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4150,36 +4206,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005607</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝中证500指数增强A</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>9.74</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -4188,36 +4244,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005608</t>
+          <t>516680</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝中证500指数增强C</t>
+          <t>建信中证细分有色金属产业主题ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>96.12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -4226,36 +4282,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011998</t>
+          <t>001865</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+          <t>前海开源事件驱动混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29.19</t>
+          <t>89.46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4290,7 +4346,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4320,32 +4376,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012428</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏核心制造混合型证券投资基金A</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.75</t>
+          <t>16.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>85.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8044</t>
+          <t>1.4416</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -4358,36 +4414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银趋势优先混合</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>108.29</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>85.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1441</t>
+          <t>0.6023</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4396,32 +4452,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161810</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华内需精选混合(LOF)</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.59</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3025</t>
+          <t>0.4218</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -4434,36 +4490,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>288001</t>
+          <t>011429</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏经典配置混合</t>
+          <t>前海开源民裕进取混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.49</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>63.85</t>
+          <t>34.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1612</t>
+          <t>0.2622</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4472,36 +4528,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8231</t>
+          <t>0.1850</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -4510,36 +4566,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012429</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏核心制造混合型证券投资基金C</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5833</t>
+          <t>0.1763</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -4548,32 +4604,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>160621</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>鹏华丰和债券(LOF)A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>20.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5668</t>
+          <t>0.1667</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -4586,36 +4642,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>320006</t>
+          <t>206013</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安灵活配置混合</t>
+          <t>鹏华宏观灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>70.73</t>
+          <t>32.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4659</t>
+          <t>0.1150</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -4624,36 +4680,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>002504</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>鹏华金鼎灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4222</t>
+          <t>0.1144</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -4662,36 +4718,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>671010</t>
+          <t>001370</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>西部利得策略优选混合A</t>
+          <t>中银新趋势灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3443</t>
+          <t>0.1090</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -4700,36 +4756,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>000585</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>嘉实对冲套利定期开放混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>55.03</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3298</t>
+          <t>0.0988</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -4738,32 +4794,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001247</t>
+          <t>011588</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞新利灵活配置混合A</t>
+          <t>前海开源成份精选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.68</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>20.70</t>
+          <t>33.94</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2852</t>
+          <t>0.0900</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4776,36 +4832,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004010</t>
+          <t>009387</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合A</t>
+          <t>嘉实稳福混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21.26</t>
+          <t>34.31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2744</t>
+          <t>0.0806</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -4814,36 +4870,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005541</t>
+          <t>005741</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
+          <t>南方君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>68.27</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2545</t>
+          <t>0.0781</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -4852,36 +4908,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>009649</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>嘉实精选平衡混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>43.04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2100</t>
+          <t>0.0644</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -4890,36 +4946,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002091</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞新利灵活配置混合C</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20.70</t>
+          <t>91.36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1597</t>
+          <t>0.0608</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -4928,36 +4984,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011997</t>
+          <t>000433</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+          <t>安信鑫发优选混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>29.73</t>
+          <t>77.47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1223</t>
+          <t>0.0474</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -4966,36 +5022,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>561550</t>
+          <t>000423</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证500增强策略ETF</t>
+          <t>前海开源事件驱动混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>81.05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1016</t>
+          <t>0.0473</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -5004,32 +5060,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004011</t>
+          <t>360010</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合C</t>
+          <t>光大保德信均衡精选混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21.26</t>
+          <t>88.14</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0930</t>
+          <t>0.0458</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -5042,36 +5098,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011060</t>
+          <t>006057</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>西部利得策略优选混合C</t>
+          <t>鹏华丰和债券（LOF）C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>20.02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0669</t>
+          <t>0.0273</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -5080,36 +5136,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>005542</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>前海开源盛鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0656</t>
+          <t>0.0157</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -5118,36 +5174,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>000423</t>
+          <t>002505</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合A</t>
+          <t>鹏华金鼎灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>88.63</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0408</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -5156,36 +5212,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>000066</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>诺安鸿鑫混合</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -5194,36 +5250,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005542</t>
+          <t>001865</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
+          <t>前海开源事件驱动混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>81.05</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0114</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -5232,36 +5288,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011998</t>
+          <t>009388</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+          <t>嘉实稳福混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29.73</t>
+          <t>34.31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -5270,36 +5326,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001865</t>
+          <t>009650</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合C</t>
+          <t>嘉实精选平衡混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>88.63</t>
+          <t>43.04</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -5308,36 +5364,34 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>003739</t>
+          <t>010150</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>新华鑫弘灵活配置混合</t>
+          <t>南方君信灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>42.81</t>
+          <t>68.27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5351,7 +5405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5372,7 +5426,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -5402,36 +5456,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012428</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏核心制造混合型证券投资基金A</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.10</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9308</t>
+          <t>0.7381</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5440,36 +5494,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>110025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银趋势优先混合</t>
+          <t>易方达资源行业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9870</t>
+          <t>0.5198</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5478,36 +5532,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.87</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70.51</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7108</t>
+          <t>0.2809</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5516,36 +5570,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161810</t>
+          <t>003986</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华内需精选混合(LOF)</t>
+          <t>申万菱信中证500指数优选增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>83.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4683</t>
+          <t>0.2231</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5554,36 +5608,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>288001</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏经典配置混合</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>67.19</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.3958</t>
+          <t>0.2100</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -5592,36 +5646,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>009649</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>嘉实精选平衡混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>44.48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.0903</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -5630,36 +5684,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>110025</t>
+          <t>004010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达资源行业混合</t>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.9352</t>
+          <t>0.1101</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -5668,36 +5722,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>001247</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>华泰柏瑞新利灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.93</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>23.71</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.8886</t>
+          <t>0.1003</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -5706,36 +5760,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>014597</t>
+          <t>009387</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合C</t>
+          <t>嘉实稳福混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>70.51</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.8774</t>
+          <t>0.0936</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -5744,36 +5798,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>320006</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺安灵活配置混合</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.87</t>
+          <t>69.19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.7018</t>
+          <t>0.0601</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -5782,36 +5836,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012429</t>
+          <t>200010</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏核心制造混合型证券投资基金C</t>
+          <t>长城双动力混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>87.86</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.6025</t>
+          <t>0.0521</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -5820,36 +5874,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>014038</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>交银启诚混合A</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28.30</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.57</t>
+          <t>89.73</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.5830</t>
+          <t>0.0379</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -5858,36 +5912,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>002091</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>华泰柏瑞新利灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>23.71</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.4865</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -5896,36 +5950,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>000423</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源事件驱动混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>71.62</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.4577</t>
+          <t>0.0235</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -5934,36 +5988,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>260112</t>
+          <t>002076</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城能源基建混合</t>
+          <t>浙商中证500指数增强A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>18.68</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>61.61</t>
+          <t>89.19</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.4054</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -5972,36 +6026,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008715</t>
+          <t>004011</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17.08</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>64.01</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.3296</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -6010,32 +6064,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>013430</t>
+          <t>005542</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>交银趋势优先混合C</t>
+          <t>前海开源盛鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14.55</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.3201</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -6048,36 +6102,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000979</t>
+          <t>008778</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>景顺长城沪港深精选股票</t>
+          <t>嘉实中证500指数增强A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14.89</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>85.55</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.3008</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -6086,36 +6140,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005541</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>70.77</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>9.46</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.2012</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -6124,32 +6178,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>009650</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>嘉实精选平衡混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>44.48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1733</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -6162,36 +6216,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009098</t>
+          <t>001865</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>景顺长城价值领航两年持有期混合</t>
+          <t>前海开源事件驱动混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>71.62</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1728</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -6200,36 +6254,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>008779</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>嘉实中证500指数增强C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>79.33</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1626</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -6238,36 +6292,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>014039</t>
+          <t>007794</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>交银启诚混合C</t>
+          <t>申万菱信中证500指数优选增强C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>80.57</t>
+          <t>83.97</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.1619</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -6276,32 +6330,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>007386</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>浙商中证500指数增强C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>89.19</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.1039</t>
+          <t>0.0039</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -6314,416 +6368,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>009388</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
+          <t>嘉实稳福混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>69.23</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0512</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>011997</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>25.88</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0462</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>260117</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>景顺长城支柱产业混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>60.86</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0442</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>000423</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>前海开源事件驱动混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0423</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005542</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>080007</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>长盛同鑫行业配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>015450</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华泰柏瑞多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>69.23</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001865</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>前海开源事件驱动混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>080015</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>长盛中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>82.34</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>011998</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>25.88</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010991</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>长盛同鑫行业配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6737,7 +6411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6748,17 +6422,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6768,14 +6462,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.66</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -6784,14 +6500,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.67</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6800,14 +6538,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.11</v>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6816,14 +6576,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.44</v>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -6832,14 +6614,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.29</v>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -6848,14 +6652,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.73</v>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -6864,14 +6690,188 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>11</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.27</v>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D2" t="n">
-        <v>18.66</v>
+        <v>41.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>12.67</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>6.11</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>3.44</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>4.29</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>2.73</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.27</v>
       </c>
     </row>
@@ -600,6 +617,4582 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>144.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7641</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5784</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0230</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5972</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4403</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1022</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0961</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0886</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0362</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9762</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8199</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7957</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7823</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7802</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6690</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6223</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5760</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5196</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5143</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4903</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3931</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3603</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3465</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013390</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3456</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3322</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3039</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华商核心引力混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>74.53</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华商核心引力混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015201</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015200</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>016069</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013017</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长江双盈6个月持有期债券A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013018</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长江双盈6个月持有期债券C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>016051</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1985,7 +6578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3059,632 +7652,6 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012428</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏核心制造混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>71.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.5692</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002121</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5788</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5286</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3986</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005541</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2634</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2075</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001247</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2014</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1414</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002091</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1048</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011997</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>29.19</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0693</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003175</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.75</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.55</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005542</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005607</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005608</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011998</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>29.19</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3720,7 +7687,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3750,36 +7717,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>012428</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>华夏核心制造混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.87</t>
+          <t>71.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0435</t>
+          <t>3.5692</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3788,36 +7755,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>广发沪港深新起点股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7599</t>
+          <t>0.5788</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3826,36 +7793,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4018</t>
+          <t>0.5286</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3864,36 +7831,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005541</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3252</t>
+          <t>0.3986</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3902,36 +7869,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3116</t>
+          <t>0.2634</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3940,36 +7907,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1487</t>
+          <t>0.2075</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -3978,36 +7945,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>001247</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>华泰柏瑞新利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>20.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1434</t>
+          <t>0.2014</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -4016,36 +7983,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009387</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实稳福混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>42.58</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1149</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -4054,36 +8021,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>002091</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>华泰柏瑞新利灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>55.64</t>
+          <t>20.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0850</t>
+          <t>0.1048</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -4092,36 +8059,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000423</t>
+          <t>011997</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合A</t>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>29.19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0222</t>
+          <t>0.0693</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -4130,32 +8097,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009388</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实稳福混合C</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>42.58</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4178,22 +8145,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.0169</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4206,36 +8173,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>005607</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
+          <t>华宝中证500指数增强A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -4244,36 +8211,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>516680</t>
+          <t>005608</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>建信中证细分有色金属产业主题ETF</t>
+          <t>华宝中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>96.12</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -4282,36 +8249,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001865</t>
+          <t>011998</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合C</t>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>29.19</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4320,6 +8287,632 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5399,7 +9992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6405,7 +10998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/000975-银泰黄金.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>41.64</v>
+        <v>30.08</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D3" t="n">
-        <v>18.66</v>
+        <v>41.64</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>12.67</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>6.11</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>3.44</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>4.29</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>2.73</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,504 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1108,2608 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4428</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5626</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2470</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8653</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8324</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5656</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2148</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1825</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9464</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8669</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7636</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6714</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6146</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4099</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3662</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3301</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3167</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013390</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>016553</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015201</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015200</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>016554</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5192,7 +8285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6578,7 +9671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7652,632 +10745,6 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012428</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏核心制造混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>71.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.5692</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002121</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5788</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5286</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3986</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005541</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2634</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2075</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001247</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2014</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1414</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002091</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1048</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011997</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>29.19</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0693</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003175</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.75</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.55</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005542</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005607</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005608</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011998</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>29.19</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8313,7 +10780,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -8343,36 +10810,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>012428</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>华夏核心制造混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.87</t>
+          <t>71.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0435</t>
+          <t>3.5692</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -8381,36 +10848,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>广发沪港深新起点股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7599</t>
+          <t>0.5788</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -8419,36 +10886,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4018</t>
+          <t>0.5286</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -8457,36 +10924,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005541</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3252</t>
+          <t>0.3986</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8495,36 +10962,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3116</t>
+          <t>0.2634</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -8533,36 +11000,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1487</t>
+          <t>0.2075</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -8571,36 +11038,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>001247</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>华泰柏瑞新利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>20.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1434</t>
+          <t>0.2014</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -8609,36 +11076,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009387</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实稳福混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>42.58</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1149</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -8647,36 +11114,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>002091</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>华泰柏瑞新利灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>55.64</t>
+          <t>20.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0850</t>
+          <t>0.1048</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -8685,36 +11152,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000423</t>
+          <t>011997</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合A</t>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>29.19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0222</t>
+          <t>0.0693</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -8723,32 +11190,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009388</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实稳福混合C</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>42.58</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -8771,22 +11238,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.0169</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -8799,36 +11266,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>005607</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
+          <t>华宝中证500指数增强A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -8837,36 +11304,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>516680</t>
+          <t>005608</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>建信中证细分有色金属产业主题ETF</t>
+          <t>华宝中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>96.12</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -8875,36 +11342,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001865</t>
+          <t>011998</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合C</t>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>29.19</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8913,6 +11380,632 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9992,7 +13085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10996,478 +14089,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6424</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2742</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>050014</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时创业成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1549</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001120</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0726</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001121</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0652</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002553</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时创业成长混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>167705</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>167706</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>